--- a/Code/Jupiter/Connect4/Logs/PPQ/PPO-PPQ-7950-SelfPlay_L1L2_summary.xlsx
+++ b/Code/Jupiter/Connect4/Logs/PPQ/PPO-PPQ-7950-SelfPlay_L1L2_summary.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-20 22:30:35</t>
+          <t>2025-08-23 22:23:52</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -588,19 +588,19 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-81.75</v>
+        <v>12.25</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-20 22:30:57</t>
+          <t>2025-08-23 22:24:16</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -647,29 +647,29 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>21.71</v>
+        <v>10.17</v>
       </c>
       <c r="L3" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="M3" t="n">
-        <v>21.71</v>
+        <v>10.17</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.982500000000001</v>
+        <v>4.235</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-20 22:31:21</t>
+          <t>2025-08-23 22:24:46</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -712,54 +712,54 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I4" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-10.52</v>
+        <v>-71.64</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="M4" t="n">
-        <v>-10.52</v>
+        <v>-71.64</v>
       </c>
       <c r="N4" t="n">
-        <v>-23.5425</v>
+        <v>-20.90000000000001</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.0003</v>
       </c>
       <c r="S4" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U4" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V4" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-20 22:31:44</t>
+          <t>2025-08-23 22:25:13</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -794,53 +794,53 @@
         <v>143</v>
       </c>
       <c r="I5" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>38.36</v>
+        <v>63.49</v>
       </c>
       <c r="L5" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>38.36</v>
+        <v>63.48999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>62.46</v>
+        <v>25.085</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.48</v>
+        <v>0.476</v>
       </c>
       <c r="R5" t="n">
         <v>0.0003</v>
       </c>
       <c r="S5" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U5" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V5" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z5" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-20 22:32:12</t>
+          <t>2025-08-23 22:25:41</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -875,51 +875,51 @@
         <v>143</v>
       </c>
       <c r="I6" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-107.24</v>
+        <v>-136.46</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-107.24</v>
+        <v>-136.46</v>
       </c>
       <c r="N6" t="n">
-        <v>-114.19</v>
+        <v>-135.49</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.308</v>
+        <v>0.28</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S6" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U6" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V6" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-20 22:32:39</t>
+          <t>2025-08-23 22:26:07</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -954,53 +954,53 @@
         <v>143</v>
       </c>
       <c r="I7" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-115.72</v>
+        <v>-141.36</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-115.72</v>
+        <v>-141.36</v>
       </c>
       <c r="N7" t="n">
-        <v>-122.0075</v>
+        <v>-137.7925</v>
       </c>
       <c r="O7" t="n">
-        <v>-41.05249999999999</v>
+        <v>-52.9725</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S7" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U7" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V7" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z7" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-20 22:33:06</t>
+          <t>2025-08-23 22:26:33</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1035,51 +1035,51 @@
         <v>143</v>
       </c>
       <c r="I8" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-113.18</v>
+        <v>-140.31</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-113.18</v>
+        <v>-140.31</v>
       </c>
       <c r="N8" t="n">
-        <v>-118.4375</v>
+        <v>-138.5025</v>
       </c>
       <c r="O8" t="n">
-        <v>-63.1435</v>
+        <v>-81.52000000000001</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S8" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U8" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V8" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z8" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-08-20 22:33:36</t>
+          <t>2025-08-23 22:27:00</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1114,55 +1114,53 @@
         <v>144</v>
       </c>
       <c r="I9" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-106.15</v>
+        <v>-139.03</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-106.15</v>
+        <v>-139.03</v>
       </c>
       <c r="N9" t="n">
-        <v>-100.785</v>
+        <v>-134.005</v>
       </c>
       <c r="O9" t="n">
-        <v>-78.592</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.04</v>
-      </c>
+        <v>-104.141</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
         <v>0.004</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S9" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U9" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V9" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z9" t="n">
         <v>1</v>
@@ -1177,7 +1175,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-20 22:34:04</t>
+          <t>2025-08-23 22:27:26</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1197,53 +1195,53 @@
         <v>144</v>
       </c>
       <c r="I10" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-125.91</v>
+        <v>-139.67</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-125.91</v>
+        <v>-139.67</v>
       </c>
       <c r="N10" t="n">
-        <v>-114.5825</v>
+        <v>-138.51</v>
       </c>
       <c r="O10" t="n">
-        <v>-114.0005</v>
+        <v>-136.86</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
         <v>0.004</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S10" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U10" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V10" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z10" t="n">
         <v>1</v>
@@ -1258,7 +1256,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-08-20 22:34:32</t>
+          <t>2025-08-23 22:27:52</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1278,53 +1276,51 @@
         <v>144</v>
       </c>
       <c r="I11" t="n">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-118.84</v>
+        <v>-137.37</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-118.84</v>
+        <v>-137.37</v>
       </c>
       <c r="N11" t="n">
-        <v>-119.5375</v>
+        <v>-137.4475</v>
       </c>
       <c r="O11" t="n">
-        <v>-115.07</v>
+        <v>-137.2515</v>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>0.004</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S11" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U11" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V11" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z11" t="n">
         <v>1</v>
@@ -1339,7 +1335,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-08-20 22:34:59</t>
+          <t>2025-08-23 22:28:19</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1359,51 +1355,51 @@
         <v>144</v>
       </c>
       <c r="I12" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-111.3</v>
+        <v>-138.94</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-111.3</v>
+        <v>-138.94</v>
       </c>
       <c r="N12" t="n">
-        <v>-120.4475</v>
+        <v>-134.9525</v>
       </c>
       <c r="O12" t="n">
-        <v>-114.758</v>
+        <v>-136.6835</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S12" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U12" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V12" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W12" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z12" t="n">
         <v>1</v>
@@ -1418,7 +1414,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-08-20 22:35:27</t>
+          <t>2025-08-23 22:28:45</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1438,51 +1434,51 @@
         <v>144</v>
       </c>
       <c r="I13" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-119.99</v>
+        <v>-140.79</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-119.99</v>
+        <v>-140.79</v>
       </c>
       <c r="N13" t="n">
-        <v>-114.12</v>
+        <v>-138.585</v>
       </c>
       <c r="O13" t="n">
-        <v>-113.8945</v>
+        <v>-136.7</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S13" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U13" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V13" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W13" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z13" t="n">
         <v>1</v>
@@ -1497,7 +1493,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-08-20 22:35:56</t>
+          <t>2025-08-23 22:29:15</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1517,51 +1513,51 @@
         <v>144</v>
       </c>
       <c r="I14" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-100.71</v>
+        <v>-128.86</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-100.71</v>
+        <v>-128.86</v>
       </c>
       <c r="N14" t="n">
-        <v>-107.52</v>
+        <v>-135.45</v>
       </c>
       <c r="O14" t="n">
-        <v>-115.2415</v>
+        <v>-136.989</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S14" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U14" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V14" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W14" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z14" t="n">
         <v>1</v>
@@ -1576,7 +1572,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-08-20 22:36:24</t>
+          <t>2025-08-23 22:29:43</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1596,51 +1592,51 @@
         <v>144</v>
       </c>
       <c r="I15" t="n">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-124.92</v>
+        <v>-139.29</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-124.92</v>
+        <v>-139.29</v>
       </c>
       <c r="N15" t="n">
-        <v>-115.5025</v>
+        <v>-138.6175</v>
       </c>
       <c r="O15" t="n">
-        <v>-115.4255</v>
+        <v>-137.0105</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S15" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U15" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V15" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W15" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z15" t="n">
         <v>1</v>
@@ -1655,7 +1651,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-08-20 22:36:52</t>
+          <t>2025-08-23 22:30:12</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1675,51 +1671,51 @@
         <v>144</v>
       </c>
       <c r="I16" t="n">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-119.64</v>
+        <v>-140.55</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-119.64</v>
+        <v>-140.55</v>
       </c>
       <c r="N16" t="n">
-        <v>-114.4375</v>
+        <v>-136.8075</v>
       </c>
       <c r="O16" t="n">
-        <v>-114.4055</v>
+        <v>-136.8825</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S16" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U16" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V16" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
@@ -1734,7 +1730,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-08-20 22:37:20</t>
+          <t>2025-08-23 22:30:42</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1754,51 +1750,51 @@
         <v>144</v>
       </c>
       <c r="I17" t="n">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-113</v>
+        <v>-131.09</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-113</v>
+        <v>-131.09</v>
       </c>
       <c r="N17" t="n">
-        <v>-115.3625</v>
+        <v>-134.6275</v>
       </c>
       <c r="O17" t="n">
-        <v>-113.3885</v>
+        <v>-136.8175</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S17" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U17" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V17" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W17" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
@@ -1813,7 +1809,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-08-20 22:37:42</t>
+          <t>2025-08-23 22:31:16</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1830,58 +1826,58 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I18" t="n">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>18.45</v>
+        <v>46.53</v>
       </c>
       <c r="L18" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="M18" t="n">
-        <v>18.45</v>
+        <v>46.52999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>16.8425</v>
+        <v>-4.904999999999998</v>
       </c>
       <c r="O18" t="n">
-        <v>-87.196</v>
+        <v>-110.0815</v>
       </c>
       <c r="P18" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0.188</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="S18" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U18" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V18" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W18" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z18" t="n">
         <v>1</v>
@@ -1896,7 +1892,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-08-20 22:38:09</t>
+          <t>2025-08-23 22:31:49</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1913,56 +1909,56 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I19" t="n">
-        <v>1472</v>
+        <v>1479</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-112.18</v>
+        <v>-131.03</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-112.18</v>
+        <v>-131.03</v>
       </c>
       <c r="N19" t="n">
-        <v>-17.6125</v>
+        <v>-60.3325</v>
       </c>
       <c r="O19" t="n">
-        <v>-69.21449999999999</v>
+        <v>-95.05800000000001</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>0.336</v>
+        <v>0.304</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S19" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U19" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V19" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W19" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
@@ -1977,7 +1973,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-08-20 22:38:39</t>
+          <t>2025-08-23 22:32:19</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1994,56 +1990,56 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I20" t="n">
-        <v>1572</v>
+        <v>1579</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-100.4</v>
+        <v>-142.95</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-100.4</v>
+        <v>-142.95</v>
       </c>
       <c r="N20" t="n">
-        <v>-107.1975</v>
+        <v>-139.6775</v>
       </c>
       <c r="O20" t="n">
-        <v>-67.55350000000001</v>
+        <v>-95.27</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
-        <v>0.244</v>
+        <v>0.204</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S20" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U20" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V20" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W20" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z20" t="n">
         <v>1</v>
@@ -2058,7 +2054,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-08-20 22:39:07</t>
+          <t>2025-08-23 22:32:49</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2075,54 +2071,54 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I21" t="n">
-        <v>1672</v>
+        <v>1679</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-105.18</v>
+        <v>-139.36</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-105.18</v>
+        <v>-139.36</v>
       </c>
       <c r="N21" t="n">
-        <v>-114.355</v>
+        <v>-136.73</v>
       </c>
       <c r="O21" t="n">
-        <v>-67.53700000000001</v>
+        <v>-95.25450000000001</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S21" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U21" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V21" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W21" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z21" t="n">
         <v>1</v>
@@ -2137,7 +2133,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-08-20 22:39:37</t>
+          <t>2025-08-23 22:33:18</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2154,54 +2150,54 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I22" t="n">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-96.41</v>
+        <v>-139.33</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-96.41</v>
+        <v>-139.33</v>
       </c>
       <c r="N22" t="n">
-        <v>-95.7675</v>
+        <v>-140.345</v>
       </c>
       <c r="O22" t="n">
-        <v>-63.61800000000001</v>
+        <v>-96.398</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S22" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U22" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V22" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W22" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z22" t="n">
         <v>1</v>
@@ -2216,7 +2212,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-08-20 22:40:07</t>
+          <t>2025-08-23 22:33:48</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2233,54 +2229,54 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I23" t="n">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-106.86</v>
+        <v>-138.28</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-106.86</v>
+        <v>-138.28</v>
       </c>
       <c r="N23" t="n">
-        <v>-106.155</v>
+        <v>-137.2275</v>
       </c>
       <c r="O23" t="n">
-        <v>-88.2175</v>
+        <v>-122.8625</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S23" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U23" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V23" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W23" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z23" t="n">
         <v>1</v>
@@ -2295,7 +2291,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-08-20 22:40:36</t>
+          <t>2025-08-23 22:34:17</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2312,54 +2308,54 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I24" t="n">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>-113.03</v>
+        <v>-142.34</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>-113.03</v>
+        <v>-142.34</v>
       </c>
       <c r="N24" t="n">
-        <v>-105.74</v>
+        <v>-138.435</v>
       </c>
       <c r="O24" t="n">
-        <v>-105.843</v>
+        <v>-138.483</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S24" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U24" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V24" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W24" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z24" t="n">
         <v>1</v>
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-08-20 22:41:06</t>
+          <t>2025-08-23 22:34:44</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2391,54 +2387,56 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I25" t="n">
-        <v>2072</v>
+        <v>2078</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-96.39</v>
+        <v>-132.19</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-96.39</v>
+        <v>-132.19</v>
       </c>
       <c r="N25" t="n">
-        <v>-99.9425</v>
+        <v>-133.285</v>
       </c>
       <c r="O25" t="n">
-        <v>-104.392</v>
+        <v>-137.2045</v>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>0.004</v>
+      </c>
       <c r="R25" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S25" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U25" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V25" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z25" t="n">
         <v>1</v>
@@ -2453,7 +2451,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-08-20 22:41:36</t>
+          <t>2025-08-23 22:35:10</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2470,54 +2468,56 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I26" t="n">
-        <v>2172</v>
+        <v>2178</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-88.3</v>
+        <v>-141.66</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-88.30000000000001</v>
+        <v>-141.66</v>
       </c>
       <c r="N26" t="n">
-        <v>-102.22</v>
+        <v>-138.5275</v>
       </c>
       <c r="O26" t="n">
-        <v>-101.965</v>
+        <v>-137.564</v>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0.004</v>
+      </c>
       <c r="R26" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S26" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U26" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V26" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W26" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-08-20 22:42:07</t>
+          <t>2025-08-23 22:35:39</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2549,54 +2549,54 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I27" t="n">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-80.84</v>
+        <v>-138.64</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-80.84</v>
+        <v>-138.64</v>
       </c>
       <c r="N27" t="n">
-        <v>-102.295</v>
+        <v>-134.52</v>
       </c>
       <c r="O27" t="n">
-        <v>-103.2705</v>
+        <v>-136.399</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S27" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U27" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V27" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W27" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z27" t="n">
         <v>1</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-08-20 22:42:36</t>
+          <t>2025-08-23 22:36:08</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2628,54 +2628,54 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I28" t="n">
-        <v>2372</v>
+        <v>2378</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>-105.99</v>
+        <v>-136.16</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-105.99</v>
+        <v>-136.16</v>
       </c>
       <c r="N28" t="n">
-        <v>-105.4325</v>
+        <v>-136.4025</v>
       </c>
       <c r="O28" t="n">
-        <v>-103.126</v>
+        <v>-136.234</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S28" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U28" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V28" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W28" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z28" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-08-20 22:43:08</t>
+          <t>2025-08-23 22:36:38</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2707,54 +2707,54 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I29" t="n">
-        <v>2472</v>
+        <v>2478</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-98.58</v>
+        <v>-138.01</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-98.58000000000001</v>
+        <v>-138.01</v>
       </c>
       <c r="N29" t="n">
-        <v>-103.67</v>
+        <v>-135.9025</v>
       </c>
       <c r="O29" t="n">
-        <v>-102.712</v>
+        <v>-135.7275</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S29" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U29" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V29" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W29" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z29" t="n">
         <v>1</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-08-20 22:43:38</t>
+          <t>2025-08-23 22:37:06</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2786,54 +2786,54 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I30" t="n">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-105.09</v>
+        <v>-136.04</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-105.09</v>
+        <v>-136.04</v>
       </c>
       <c r="N30" t="n">
-        <v>-100.07</v>
+        <v>-137.3225</v>
       </c>
       <c r="O30" t="n">
-        <v>-102.7375</v>
+        <v>-136.535</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S30" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U30" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V30" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W30" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z30" t="n">
         <v>1</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-08-20 22:44:06</t>
+          <t>2025-08-23 22:37:37</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2865,58 +2865,58 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I31" t="n">
-        <v>2645</v>
+        <v>2653</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>37.3</v>
+        <v>56.69</v>
       </c>
       <c r="L31" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>37.3</v>
+        <v>56.69</v>
       </c>
       <c r="N31" t="n">
-        <v>-28.4675</v>
+        <v>-62.16999999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>-87.98699999999999</v>
+        <v>-121.2635</v>
       </c>
       <c r="P31" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S31" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U31" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V31" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W31" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z31" t="n">
         <v>1</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-08-20 22:44:32</t>
+          <t>2025-08-23 22:38:10</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2948,58 +2948,58 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I32" t="n">
-        <v>2682</v>
+        <v>2709</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>63.22</v>
+        <v>-7.25</v>
       </c>
       <c r="L32" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="M32" t="n">
-        <v>63.22000000000001</v>
+        <v>-7.250000000000004</v>
       </c>
       <c r="N32" t="n">
-        <v>83.0575</v>
+        <v>-2.944999999999998</v>
       </c>
       <c r="O32" t="n">
-        <v>-50.9165</v>
+        <v>-94.9485</v>
       </c>
       <c r="P32" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.348</v>
+        <v>0.276</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S32" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U32" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V32" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W32" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z32" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-08-20 22:46:38</t>
+          <t>2025-08-23 22:40:25</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3031,56 +3031,56 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I33" t="n">
-        <v>2782</v>
+        <v>2809</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>-124.64</v>
+        <v>-139.23</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-124.64</v>
+        <v>-139.23</v>
       </c>
       <c r="N33" t="n">
-        <v>-120.6425</v>
+        <v>-135.745</v>
       </c>
       <c r="O33" t="n">
-        <v>-53.9585</v>
+        <v>-94.81700000000001</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
-        <v>0.348</v>
+        <v>0.276</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S33" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U33" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V33" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W33" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z33" t="n">
         <v>1</v>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-08-20 22:48:44</t>
+          <t>2025-08-23 22:42:33</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3112,56 +3112,56 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I34" t="n">
-        <v>2882</v>
+        <v>2909</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>-107.31</v>
+        <v>-131.7</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-107.31</v>
+        <v>-131.7</v>
       </c>
       <c r="N34" t="n">
-        <v>-112.9375</v>
+        <v>-132.77</v>
       </c>
       <c r="O34" t="n">
-        <v>-55.812</v>
+        <v>-94.1905</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
-        <v>0.12</v>
+        <v>0.096</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S34" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U34" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V34" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W34" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z34" t="n">
         <v>1</v>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-08-20 22:50:48</t>
+          <t>2025-08-23 22:44:43</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3193,54 +3193,54 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I35" t="n">
-        <v>2982</v>
+        <v>3009</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-109.72</v>
+        <v>-134.76</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-109.72</v>
+        <v>-134.76</v>
       </c>
       <c r="N35" t="n">
-        <v>-118.4275</v>
+        <v>-131.76</v>
       </c>
       <c r="O35" t="n">
-        <v>-59.4835</v>
+        <v>-93.078</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S35" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U35" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V35" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z35" t="n">
         <v>1</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-08-20 22:52:54</t>
+          <t>2025-08-23 22:46:56</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3272,54 +3272,54 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I36" t="n">
-        <v>3082</v>
+        <v>3109</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-112.08</v>
+        <v>-136.33</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-112.08</v>
+        <v>-136.33</v>
       </c>
       <c r="N36" t="n">
-        <v>-117.215</v>
+        <v>-135.3</v>
       </c>
       <c r="O36" t="n">
-        <v>-77.233</v>
+        <v>-107.704</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S36" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U36" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V36" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W36" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-08-20 22:54:59</t>
+          <t>2025-08-23 22:49:18</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3351,54 +3351,54 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I37" t="n">
-        <v>3182</v>
+        <v>3209</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-113.74</v>
+        <v>-136.42</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-113.74</v>
+        <v>-136.42</v>
       </c>
       <c r="N37" t="n">
-        <v>-119.565</v>
+        <v>-134.0675</v>
       </c>
       <c r="O37" t="n">
-        <v>-117.7575</v>
+        <v>-133.9285</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S37" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U37" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V37" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W37" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z37" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-08-20 22:57:06</t>
+          <t>2025-08-23 22:51:36</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3430,54 +3430,54 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I38" t="n">
-        <v>3282</v>
+        <v>3309</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-122.01</v>
+        <v>-133.28</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-122.01</v>
+        <v>-133.28</v>
       </c>
       <c r="N38" t="n">
-        <v>-113.665</v>
+        <v>-133.0125</v>
       </c>
       <c r="O38" t="n">
-        <v>-116.362</v>
+        <v>-133.382</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S38" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U38" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V38" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W38" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z38" t="n">
         <v>1</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-08-20 22:59:13</t>
+          <t>2025-08-23 22:53:47</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3509,54 +3509,54 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I39" t="n">
-        <v>3382</v>
+        <v>3409</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-116.91</v>
+        <v>-130.72</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-116.91</v>
+        <v>-130.72</v>
       </c>
       <c r="N39" t="n">
-        <v>-114.05</v>
+        <v>-133.2775</v>
       </c>
       <c r="O39" t="n">
-        <v>-116.5845</v>
+        <v>-133.4835</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S39" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U39" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V39" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W39" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z39" t="n">
         <v>1</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-08-20 23:01:23</t>
+          <t>2025-08-23 22:56:09</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3588,54 +3588,54 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I40" t="n">
-        <v>3482</v>
+        <v>3509</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-96.56999999999999</v>
+        <v>-134.65</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-96.56999999999999</v>
+        <v>-134.65</v>
       </c>
       <c r="N40" t="n">
-        <v>-112.74</v>
+        <v>-132.14</v>
       </c>
       <c r="O40" t="n">
-        <v>-115.447</v>
+        <v>-133.5595</v>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S40" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U40" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V40" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W40" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z40" t="n">
         <v>1</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-08-20 23:03:30</t>
+          <t>2025-08-23 22:58:30</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3667,54 +3667,54 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I41" t="n">
-        <v>3582</v>
+        <v>3609</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-121.18</v>
+        <v>-136.49</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-121.18</v>
+        <v>-136.49</v>
       </c>
       <c r="N41" t="n">
-        <v>-116.2225</v>
+        <v>-131.6875</v>
       </c>
       <c r="O41" t="n">
-        <v>-115.2485</v>
+        <v>-132.837</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S41" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U41" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V41" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W41" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z41" t="n">
         <v>1</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-08-20 23:05:41</t>
+          <t>2025-08-23 23:00:50</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3746,54 +3746,54 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I42" t="n">
-        <v>3682</v>
+        <v>3709</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-116.88</v>
+        <v>-137.88</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-116.88</v>
+        <v>-137.88</v>
       </c>
       <c r="N42" t="n">
-        <v>-112.0725</v>
+        <v>-132.045</v>
       </c>
       <c r="O42" t="n">
-        <v>-113.75</v>
+        <v>-132.4325</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S42" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U42" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V42" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W42" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z42" t="n">
         <v>1</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-08-20 23:07:59</t>
+          <t>2025-08-23 23:03:08</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3825,54 +3825,54 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I43" t="n">
-        <v>3782</v>
+        <v>3809</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>-118.47</v>
+        <v>-127.53</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-118.47</v>
+        <v>-127.53</v>
       </c>
       <c r="N43" t="n">
-        <v>-122.795</v>
+        <v>-131.15</v>
       </c>
       <c r="O43" t="n">
-        <v>-115.576</v>
+        <v>-132.06</v>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S43" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U43" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V43" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W43" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z43" t="n">
         <v>1</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-08-20 23:10:15</t>
+          <t>2025-08-23 23:05:26</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3904,54 +3904,54 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I44" t="n">
-        <v>3882</v>
+        <v>3909</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>-124.9</v>
+        <v>-128.75</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-124.9</v>
+        <v>-128.75</v>
       </c>
       <c r="N44" t="n">
-        <v>-121.7475</v>
+        <v>-134.8575</v>
       </c>
       <c r="O44" t="n">
-        <v>-117.1155</v>
+        <v>-132.376</v>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S44" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U44" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V44" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W44" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z44" t="n">
         <v>1</v>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-08-20 23:10:48</t>
+          <t>2025-08-23 23:05:55</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3983,54 +3983,54 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I45" t="n">
-        <v>3982</v>
+        <v>4009</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>-95.45</v>
+        <v>-135.88</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-95.45</v>
+        <v>-135.88</v>
       </c>
       <c r="N45" t="n">
-        <v>-102.865</v>
+        <v>-135.38</v>
       </c>
       <c r="O45" t="n">
-        <v>-115.1405</v>
+        <v>-133.024</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S45" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U45" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V45" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W45" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z45" t="n">
         <v>1</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-08-20 23:11:19</t>
+          <t>2025-08-23 23:06:24</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4062,54 +4062,54 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I46" t="n">
-        <v>4082</v>
+        <v>4109</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-119.8</v>
+        <v>-137.11</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-119.8</v>
+        <v>-137.11</v>
       </c>
       <c r="N46" t="n">
-        <v>-117.6425</v>
+        <v>-136.69</v>
       </c>
       <c r="O46" t="n">
-        <v>-115.4245</v>
+        <v>-134.0245</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S46" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U46" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V46" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W46" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z46" t="n">
         <v>1</v>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-08-20 23:11:51</t>
+          <t>2025-08-23 23:06:53</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4141,54 +4141,54 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I47" t="n">
-        <v>4182</v>
+        <v>4209</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>-109.47</v>
+        <v>-137.6</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-109.47</v>
+        <v>-137.6</v>
       </c>
       <c r="N47" t="n">
-        <v>-110.195</v>
+        <v>-138.3025</v>
       </c>
       <c r="O47" t="n">
-        <v>-115.049</v>
+        <v>-135.276</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S47" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U47" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V47" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W47" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z47" t="n">
         <v>1</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-08-20 23:12:16</t>
+          <t>2025-08-23 23:07:25</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4220,58 +4220,58 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="I48" t="n">
-        <v>4230</v>
+        <v>4264</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.55</v>
+        <v>-32.05</v>
       </c>
       <c r="L48" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="M48" t="n">
-        <v>-17.55</v>
+        <v>-32.05</v>
       </c>
       <c r="N48" t="n">
-        <v>16.4775</v>
+        <v>-6.942500000000003</v>
       </c>
       <c r="O48" t="n">
-        <v>-87.19450000000001</v>
+        <v>-110.4345</v>
       </c>
       <c r="P48" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.208</v>
+        <v>0.18</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="S48" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U48" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V48" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W48" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z48" t="n">
         <v>1</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-08-20 23:13:38</t>
+          <t>2025-08-23 23:08:51</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4303,56 +4303,56 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I49" t="n">
-        <v>4304</v>
+        <v>4340</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>-115.83</v>
+        <v>-129.6</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-115.83</v>
+        <v>-129.6</v>
       </c>
       <c r="N49" t="n">
-        <v>-47.1075</v>
+        <v>-63.105</v>
       </c>
       <c r="O49" t="n">
-        <v>-72.26650000000001</v>
+        <v>-96.084</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
-        <v>0.3120000000000001</v>
+        <v>0.272</v>
       </c>
       <c r="R49" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S49" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U49" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V49" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W49" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z49" t="n">
         <v>1</v>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-08-20 23:15:57</t>
+          <t>2025-08-23 23:10:57</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4384,56 +4384,56 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I50" t="n">
-        <v>4404</v>
+        <v>4440</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>-114.81</v>
+        <v>-132.89</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-114.81</v>
+        <v>-132.89</v>
       </c>
       <c r="N50" t="n">
-        <v>-119.1425</v>
+        <v>-135.2225</v>
       </c>
       <c r="O50" t="n">
-        <v>-75.52200000000002</v>
+        <v>-96.05250000000001</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
-        <v>0.212</v>
+        <v>0.192</v>
       </c>
       <c r="R50" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S50" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U50" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V50" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W50" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z50" t="n">
         <v>1</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-08-20 23:18:21</t>
+          <t>2025-08-23 23:13:07</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -4465,54 +4465,54 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I51" t="n">
-        <v>4504</v>
+        <v>4540</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>-113.66</v>
+        <v>-137.02</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-113.66</v>
+        <v>-137.02</v>
       </c>
       <c r="N51" t="n">
-        <v>-117.4625</v>
+        <v>-136.15</v>
       </c>
       <c r="O51" t="n">
-        <v>-75.48599999999999</v>
+        <v>-95.94450000000001</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S51" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U51" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V51" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W51" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z51" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-08-20 23:20:34</t>
+          <t>2025-08-23 23:15:06</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -4544,54 +4544,54 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I52" t="n">
-        <v>4604</v>
+        <v>4640</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>-123.36</v>
+        <v>-141.4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-123.36</v>
+        <v>-141.4</v>
       </c>
       <c r="N52" t="n">
-        <v>-121.6225</v>
+        <v>-136.125</v>
       </c>
       <c r="O52" t="n">
-        <v>-77.7715</v>
+        <v>-95.50899999999999</v>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S52" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U52" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V52" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W52" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z52" t="n">
         <v>1</v>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-08-20 23:22:50</t>
+          <t>2025-08-23 23:17:09</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -4623,54 +4623,54 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I53" t="n">
-        <v>4704</v>
+        <v>4740</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>-114.63</v>
+        <v>-126.59</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-114.63</v>
+        <v>-126.59</v>
       </c>
       <c r="N53" t="n">
-        <v>-118.49</v>
+        <v>-134.4475</v>
       </c>
       <c r="O53" t="n">
-        <v>-104.765</v>
+        <v>-121.01</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S53" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U53" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V53" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W53" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z53" t="n">
         <v>1</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-08-20 23:25:12</t>
+          <t>2025-08-23 23:19:18</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -4702,54 +4702,54 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I54" t="n">
-        <v>4804</v>
+        <v>4840</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>-116.36</v>
+        <v>-127.24</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-116.36</v>
+        <v>-127.24</v>
       </c>
       <c r="N54" t="n">
-        <v>-117.025</v>
+        <v>-133.97</v>
       </c>
       <c r="O54" t="n">
-        <v>-118.7485</v>
+        <v>-135.183</v>
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S54" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U54" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V54" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W54" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z54" t="n">
         <v>1</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-08-20 23:27:30</t>
+          <t>2025-08-23 23:21:25</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -4781,54 +4781,54 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I55" t="n">
-        <v>4904</v>
+        <v>4940</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>-114.86</v>
+        <v>-137.49</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-114.86</v>
+        <v>-137.49</v>
       </c>
       <c r="N55" t="n">
-        <v>-117.605</v>
+        <v>-133.96</v>
       </c>
       <c r="O55" t="n">
-        <v>-118.441</v>
+        <v>-134.9305</v>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S55" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U55" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V55" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W55" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z55" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-08-20 23:29:45</t>
+          <t>2025-08-23 23:23:34</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -4860,54 +4860,54 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I56" t="n">
-        <v>5004</v>
+        <v>5040</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>-116.54</v>
+        <v>-135.87</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-116.54</v>
+        <v>-135.87</v>
       </c>
       <c r="N56" t="n">
-        <v>-114.25</v>
+        <v>-134</v>
       </c>
       <c r="O56" t="n">
-        <v>-117.7985</v>
+        <v>-134.5005</v>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S56" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U56" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V56" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W56" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z56" t="n">
         <v>1</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-08-20 23:32:08</t>
+          <t>2025-08-23 23:25:37</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -4939,54 +4939,54 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I57" t="n">
-        <v>5104</v>
+        <v>5140</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>-122.5</v>
+        <v>-139.22</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-122.5</v>
+        <v>-139.22</v>
       </c>
       <c r="N57" t="n">
-        <v>-112.045</v>
+        <v>-135.5825</v>
       </c>
       <c r="O57" t="n">
-        <v>-115.883</v>
+        <v>-134.392</v>
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S57" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U57" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V57" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z57" t="n">
         <v>1</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-08-20 23:34:30</t>
+          <t>2025-08-23 23:27:45</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -5018,54 +5018,54 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I58" t="n">
-        <v>5204</v>
+        <v>5240</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>-111.5</v>
+        <v>-138.22</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>-111.5</v>
+        <v>-138.22</v>
       </c>
       <c r="N58" t="n">
-        <v>-113.335</v>
+        <v>-135.36</v>
       </c>
       <c r="O58" t="n">
-        <v>-114.852</v>
+        <v>-134.5745</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S58" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U58" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V58" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W58" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z58" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-08-20 23:36:43</t>
+          <t>2025-08-23 23:29:54</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -5097,54 +5097,54 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I59" t="n">
-        <v>5304</v>
+        <v>5340</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>-107.46</v>
+        <v>-134.4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>-107.46</v>
+        <v>-134.4</v>
       </c>
       <c r="N59" t="n">
-        <v>-116.765</v>
+        <v>-136.1975</v>
       </c>
       <c r="O59" t="n">
-        <v>-114.8</v>
+        <v>-135.02</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S59" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U59" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V59" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W59" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z59" t="n">
         <v>1</v>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-08-20 23:38:59</t>
+          <t>2025-08-23 23:32:06</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -5176,54 +5176,54 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I60" t="n">
-        <v>5404</v>
+        <v>5440</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>-116.16</v>
+        <v>-136.9</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-116.16</v>
+        <v>-136.9</v>
       </c>
       <c r="N60" t="n">
-        <v>-118.8225</v>
+        <v>-134.0625</v>
       </c>
       <c r="O60" t="n">
-        <v>-115.0435</v>
+        <v>-135.0405</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S60" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U60" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V60" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W60" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z60" t="n">
         <v>1</v>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-08-20 23:41:24</t>
+          <t>2025-08-23 23:34:17</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -5255,54 +5255,54 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I61" t="n">
-        <v>5504</v>
+        <v>5540</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>-115.7</v>
+        <v>-133.72</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>-115.7</v>
+        <v>-133.72</v>
       </c>
       <c r="N61" t="n">
-        <v>-113.8975</v>
+        <v>-131.65</v>
       </c>
       <c r="O61" t="n">
-        <v>-114.973</v>
+        <v>-134.5705</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S61" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U61" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V61" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W61" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X61" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z61" t="n">
         <v>1</v>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-08-20 23:43:42</t>
+          <t>2025-08-23 23:36:26</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5334,54 +5334,54 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I62" t="n">
-        <v>5604</v>
+        <v>5640</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>-118.87</v>
+        <v>-137.19</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>-118.87</v>
+        <v>-137.19</v>
       </c>
       <c r="N62" t="n">
-        <v>-117.1725</v>
+        <v>-136.0125</v>
       </c>
       <c r="O62" t="n">
-        <v>-115.9985</v>
+        <v>-134.6565</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S62" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U62" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V62" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W62" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z62" t="n">
         <v>1</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-08-20 23:45:58</t>
+          <t>2025-08-23 23:38:34</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -5413,54 +5413,54 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I63" t="n">
-        <v>5704</v>
+        <v>5740</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>-118.06</v>
+        <v>-128.84</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>-118.06</v>
+        <v>-128.84</v>
       </c>
       <c r="N63" t="n">
-        <v>-117.29</v>
+        <v>-125.0925</v>
       </c>
       <c r="O63" t="n">
-        <v>-116.7895</v>
+        <v>-132.603</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S63" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U63" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V63" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W63" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z63" t="n">
         <v>1</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-08-20 23:47:25</t>
+          <t>2025-08-23 23:39:49</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -5492,54 +5492,54 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I64" t="n">
-        <v>5804</v>
+        <v>5840</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>-104.29</v>
+        <v>-134.04</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>-104.29</v>
+        <v>-134.04</v>
       </c>
       <c r="N64" t="n">
-        <v>-108.1725</v>
+        <v>-134.2475</v>
       </c>
       <c r="O64" t="n">
-        <v>-115.071</v>
+        <v>-132.213</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S64" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U64" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V64" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W64" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z64" t="n">
         <v>1</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-08-20 23:47:58</t>
+          <t>2025-08-23 23:40:22</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -5571,54 +5571,54 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I65" t="n">
-        <v>5904</v>
+        <v>5940</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>-109.1</v>
+        <v>-137.34</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>-109.1</v>
+        <v>-137.34</v>
       </c>
       <c r="N65" t="n">
-        <v>-107.3575</v>
+        <v>-137.565</v>
       </c>
       <c r="O65" t="n">
-        <v>-112.778</v>
+        <v>-132.9135</v>
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S65" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U65" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V65" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W65" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z65" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-08-20 23:48:32</t>
+          <t>2025-08-23 23:41:00</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -5650,54 +5650,54 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="I66" t="n">
-        <v>6004</v>
+        <v>6040</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>-92.23999999999999</v>
+        <v>-137.54</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>-92.23999999999999</v>
+        <v>-137.54</v>
       </c>
       <c r="N66" t="n">
-        <v>-106.53</v>
+        <v>-136.8275</v>
       </c>
       <c r="O66" t="n">
-        <v>-111.3045</v>
+        <v>-133.949</v>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="S66" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U66" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V66" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W66" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z66" t="n">
         <v>1</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-08-20 23:49:06</t>
+          <t>2025-08-23 23:41:34</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -5729,58 +5729,58 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="I67" t="n">
-        <v>6074</v>
+        <v>6117</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>255.87</v>
+        <v>23.01</v>
       </c>
       <c r="L67" t="n">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="M67" t="n">
-        <v>255.87</v>
+        <v>23.01</v>
       </c>
       <c r="N67" t="n">
-        <v>50.27</v>
+        <v>-47.23249999999999</v>
       </c>
       <c r="O67" t="n">
-        <v>-77.81599999999999</v>
+        <v>-116.193</v>
       </c>
       <c r="P67" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.12</v>
+        <v>0.092</v>
       </c>
       <c r="R67" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S67" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U67" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V67" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W67" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z67" t="n">
         <v>1</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-08-20 23:49:41</t>
+          <t>2025-08-23 23:42:12</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5812,58 +5812,58 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="I68" t="n">
-        <v>6125</v>
+        <v>6161</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>67.19</v>
+        <v>108.96</v>
       </c>
       <c r="L68" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="M68" t="n">
-        <v>67.19</v>
+        <v>108.96</v>
       </c>
       <c r="N68" t="n">
-        <v>121.05</v>
+        <v>112.875</v>
       </c>
       <c r="O68" t="n">
-        <v>-30.148</v>
+        <v>-68.59950000000001</v>
       </c>
       <c r="P68" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.308</v>
+        <v>0.316</v>
       </c>
       <c r="R68" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S68" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U68" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V68" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W68" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z68" t="n">
         <v>1</v>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-08-20 23:50:16</t>
+          <t>2025-08-23 23:42:51</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -5895,58 +5895,58 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="I69" t="n">
-        <v>6176</v>
+        <v>6219</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>141.13</v>
+        <v>3.04</v>
       </c>
       <c r="L69" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="M69" t="n">
-        <v>141.13</v>
+        <v>3.039999999999994</v>
       </c>
       <c r="N69" t="n">
-        <v>114.515</v>
+        <v>24.38</v>
       </c>
       <c r="O69" t="n">
-        <v>14.3895</v>
+        <v>-36.874</v>
       </c>
       <c r="P69" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="R69" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S69" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U69" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V69" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W69" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z69" t="n">
         <v>1</v>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-08-20 23:50:51</t>
+          <t>2025-08-23 23:43:29</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -5978,58 +5978,58 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="I70" t="n">
-        <v>6230</v>
+        <v>6265</v>
       </c>
       <c r="J70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>203.02</v>
+        <v>123.47</v>
       </c>
       <c r="L70" t="n">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="M70" t="n">
-        <v>203.02</v>
+        <v>123.47</v>
       </c>
       <c r="N70" t="n">
-        <v>126.67</v>
+        <v>92.24249999999999</v>
       </c>
       <c r="O70" t="n">
-        <v>61.19500000000001</v>
+        <v>9.087499999999999</v>
       </c>
       <c r="P70" t="n">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.472</v>
+        <v>0.504</v>
       </c>
       <c r="R70" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S70" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T70" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U70" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V70" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W70" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X70" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z70" t="n">
         <v>1</v>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-08-20 23:51:25</t>
+          <t>2025-08-23 23:44:06</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -6061,58 +6061,58 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="I71" t="n">
-        <v>6277</v>
+        <v>6307</v>
       </c>
       <c r="J71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>189.2</v>
+        <v>118.04</v>
       </c>
       <c r="L71" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M71" t="n">
-        <v>189.2</v>
+        <v>118.04</v>
       </c>
       <c r="N71" t="n">
-        <v>197.045</v>
+        <v>88.9675</v>
       </c>
       <c r="O71" t="n">
-        <v>121.91</v>
+        <v>54.2465</v>
       </c>
       <c r="P71" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.496</v>
+        <v>0.536</v>
       </c>
       <c r="R71" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S71" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U71" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V71" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W71" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z71" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-08-20 23:51:59</t>
+          <t>2025-08-23 23:44:44</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -6144,58 +6144,58 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>668</v>
+        <v>631</v>
       </c>
       <c r="I72" t="n">
-        <v>6325</v>
+        <v>6366</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>192.74</v>
+        <v>21.93</v>
       </c>
       <c r="L72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M72" t="n">
-        <v>192.74</v>
+        <v>21.93</v>
       </c>
       <c r="N72" t="n">
-        <v>128.5</v>
+        <v>23.5375</v>
       </c>
       <c r="O72" t="n">
-        <v>137.556</v>
+        <v>68.40049999999999</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.504</v>
+        <v>0.528</v>
       </c>
       <c r="R72" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S72" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.004753444402012974</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U72" t="n">
-        <v>1.49459907412529</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V72" t="n">
-        <v>1.90156364440918</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W72" t="n">
-        <v>0.004201140247459989</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0228271484375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.02243524789810181</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z72" t="n">
         <v>1</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-08-20 23:52:34</t>
+          <t>2025-08-23 23:45:22</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -6227,64 +6227,64 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="I73" t="n">
-        <v>6374</v>
+        <v>6423</v>
       </c>
       <c r="J73" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>93.15000000000001</v>
+        <v>67.33</v>
       </c>
       <c r="L73" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="M73" t="n">
-        <v>93.15000000000001</v>
+        <v>67.33</v>
       </c>
       <c r="N73" t="n">
-        <v>157.505</v>
+        <v>69.09</v>
       </c>
       <c r="O73" t="n">
-        <v>144.847</v>
+        <v>59.6435</v>
       </c>
       <c r="P73" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.5</v>
+        <v>0.428</v>
       </c>
       <c r="R73" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S73" t="n">
-        <v>7087</v>
+        <v>192</v>
       </c>
       <c r="T73" t="n">
-        <v>0.4176411470398307</v>
+        <v>-0.002021996905871978</v>
       </c>
       <c r="U73" t="n">
-        <v>1.690692268311977</v>
+        <v>0.0342982109868899</v>
       </c>
       <c r="V73" t="n">
-        <v>1.64027813076973</v>
+        <v>1.899387399355571</v>
       </c>
       <c r="W73" t="n">
-        <v>0.7957766354084015</v>
+        <v>0.001796641998225823</v>
       </c>
       <c r="X73" t="n">
-        <v>0.9652099609375</v>
+        <v>0.001180013020833333</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.005121052265167236</v>
+        <v>0.04506433010101318</v>
       </c>
       <c r="Z73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA73" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="74">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-08-20 23:53:14</t>
+          <t>2025-08-23 23:46:08</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -6310,58 +6310,58 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>767</v>
+        <v>730</v>
       </c>
       <c r="I74" t="n">
-        <v>6423</v>
+        <v>6466</v>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>220.17</v>
+        <v>211.18</v>
       </c>
       <c r="L74" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="M74" t="n">
-        <v>220.17</v>
+        <v>211.18</v>
       </c>
       <c r="N74" t="n">
-        <v>202.84</v>
+        <v>157.85</v>
       </c>
       <c r="O74" t="n">
-        <v>162.512</v>
+        <v>86.33750000000001</v>
       </c>
       <c r="P74" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.492</v>
+        <v>0.476</v>
       </c>
       <c r="R74" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S74" t="n">
-        <v>7087</v>
+        <v>7157</v>
       </c>
       <c r="T74" t="n">
-        <v>0.4176411470398307</v>
+        <v>0.221602899429854</v>
       </c>
       <c r="U74" t="n">
-        <v>1.690692268311977</v>
+        <v>0.02762862874078564</v>
       </c>
       <c r="V74" t="n">
-        <v>1.64027813076973</v>
+        <v>1.445326013490558</v>
       </c>
       <c r="W74" t="n">
-        <v>0.7957766354084015</v>
+        <v>0.05918683703930583</v>
       </c>
       <c r="X74" t="n">
-        <v>0.9652099609375</v>
+        <v>0.8277587890625</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.005121052265167236</v>
+        <v>0.02281683683395386</v>
       </c>
       <c r="Z74" t="n">
         <v>2</v>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-08-20 23:53:49</t>
+          <t>2025-08-23 23:46:49</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -6393,58 +6393,58 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="I75" t="n">
-        <v>6474</v>
+        <v>6511</v>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>180.93</v>
+        <v>205.53</v>
       </c>
       <c r="L75" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M75" t="n">
-        <v>180.93</v>
+        <v>205.53</v>
       </c>
       <c r="N75" t="n">
-        <v>189.9425</v>
+        <v>262.0325</v>
       </c>
       <c r="O75" t="n">
-        <v>175.1665</v>
+        <v>120.2955</v>
       </c>
       <c r="P75" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.492</v>
+        <v>0.508</v>
       </c>
       <c r="R75" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S75" t="n">
-        <v>7087</v>
+        <v>7157</v>
       </c>
       <c r="T75" t="n">
-        <v>0.4176411470398307</v>
+        <v>0.221602899429854</v>
       </c>
       <c r="U75" t="n">
-        <v>1.690692268311977</v>
+        <v>0.02762862874078564</v>
       </c>
       <c r="V75" t="n">
-        <v>1.64027813076973</v>
+        <v>1.445326013490558</v>
       </c>
       <c r="W75" t="n">
-        <v>0.7957766354084015</v>
+        <v>0.05918683703930583</v>
       </c>
       <c r="X75" t="n">
-        <v>0.9652099609375</v>
+        <v>0.8277587890625</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.005121052265167236</v>
+        <v>0.02281683683395386</v>
       </c>
       <c r="Z75" t="n">
         <v>2</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-08-20 23:54:25</t>
+          <t>2025-08-23 23:47:32</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -6476,58 +6476,58 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="I76" t="n">
-        <v>6524</v>
+        <v>6565</v>
       </c>
       <c r="J76" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>202.67</v>
+        <v>227.6</v>
       </c>
       <c r="L76" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="M76" t="n">
-        <v>202.67</v>
+        <v>227.6</v>
       </c>
       <c r="N76" t="n">
-        <v>200.4975</v>
+        <v>245</v>
       </c>
       <c r="O76" t="n">
-        <v>175.857</v>
+        <v>151.502</v>
       </c>
       <c r="P76" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.488</v>
+        <v>0.516</v>
       </c>
       <c r="R76" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S76" t="n">
-        <v>7087</v>
+        <v>7157</v>
       </c>
       <c r="T76" t="n">
-        <v>0.4176411470398307</v>
+        <v>0.221602899429854</v>
       </c>
       <c r="U76" t="n">
-        <v>1.690692268311977</v>
+        <v>0.02762862874078564</v>
       </c>
       <c r="V76" t="n">
-        <v>1.64027813076973</v>
+        <v>1.445326013490558</v>
       </c>
       <c r="W76" t="n">
-        <v>0.7957766354084015</v>
+        <v>0.05918683703930583</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9652099609375</v>
+        <v>0.8277587890625</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.005121052265167236</v>
+        <v>0.02281683683395386</v>
       </c>
       <c r="Z76" t="n">
         <v>2</v>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-08-20 23:55:01</t>
+          <t>2025-08-23 23:48:15</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -6559,58 +6559,58 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>926</v>
+        <v>885</v>
       </c>
       <c r="I77" t="n">
-        <v>6562</v>
+        <v>6611</v>
       </c>
       <c r="J77" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>208.11</v>
+        <v>275.11</v>
       </c>
       <c r="L77" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="M77" t="n">
-        <v>208.11</v>
+        <v>275.11</v>
       </c>
       <c r="N77" t="n">
-        <v>250.62</v>
+        <v>259.925</v>
       </c>
       <c r="O77" t="n">
-        <v>200.281</v>
+        <v>198.7795</v>
       </c>
       <c r="P77" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.54</v>
+        <v>0.512</v>
       </c>
       <c r="R77" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S77" t="n">
-        <v>7087</v>
+        <v>7157</v>
       </c>
       <c r="T77" t="n">
-        <v>0.4176411470398307</v>
+        <v>0.221602899429854</v>
       </c>
       <c r="U77" t="n">
-        <v>1.690692268311977</v>
+        <v>0.02762862874078564</v>
       </c>
       <c r="V77" t="n">
-        <v>1.64027813076973</v>
+        <v>1.445326013490558</v>
       </c>
       <c r="W77" t="n">
-        <v>0.7957766354084015</v>
+        <v>0.05918683703930583</v>
       </c>
       <c r="X77" t="n">
-        <v>0.9652099609375</v>
+        <v>0.8277587890625</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.005121052265167236</v>
+        <v>0.02281683683395386</v>
       </c>
       <c r="Z77" t="n">
         <v>2</v>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-08-20 23:55:37</t>
+          <t>2025-08-23 23:48:59</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -6642,58 +6642,58 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>978</v>
+        <v>934</v>
       </c>
       <c r="I78" t="n">
-        <v>6609</v>
+        <v>6662</v>
       </c>
       <c r="J78" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>218.53</v>
+        <v>239.77</v>
       </c>
       <c r="L78" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="M78" t="n">
-        <v>218.53</v>
+        <v>239.77</v>
       </c>
       <c r="N78" t="n">
-        <v>209.8125</v>
+        <v>232.295</v>
       </c>
       <c r="O78" t="n">
-        <v>210.7425</v>
+        <v>231.4205</v>
       </c>
       <c r="P78" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.548</v>
+        <v>0.516</v>
       </c>
       <c r="R78" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S78" t="n">
-        <v>7087</v>
+        <v>7157</v>
       </c>
       <c r="T78" t="n">
-        <v>0.4176411470398307</v>
+        <v>0.221602899429854</v>
       </c>
       <c r="U78" t="n">
-        <v>1.690692268311977</v>
+        <v>0.02762862874078564</v>
       </c>
       <c r="V78" t="n">
-        <v>1.64027813076973</v>
+        <v>1.445326013490558</v>
       </c>
       <c r="W78" t="n">
-        <v>0.7957766354084015</v>
+        <v>0.05918683703930583</v>
       </c>
       <c r="X78" t="n">
-        <v>0.9652099609375</v>
+        <v>0.8277587890625</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.005121052265167236</v>
+        <v>0.02281683683395386</v>
       </c>
       <c r="Z78" t="n">
         <v>2</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-08-20 23:56:14</t>
+          <t>2025-08-23 23:49:41</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -6725,64 +6725,64 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>1027</v>
+        <v>981</v>
       </c>
       <c r="I79" t="n">
-        <v>6656</v>
+        <v>6714</v>
       </c>
       <c r="J79" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>254.88</v>
+        <v>219.18</v>
       </c>
       <c r="L79" t="n">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="M79" t="n">
-        <v>254.88</v>
+        <v>219.18</v>
       </c>
       <c r="N79" t="n">
-        <v>231.5625</v>
+        <v>233.83</v>
       </c>
       <c r="O79" t="n">
-        <v>216.487</v>
+        <v>246.6165</v>
       </c>
       <c r="P79" t="n">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.524</v>
+        <v>0.48</v>
       </c>
       <c r="R79" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S79" t="n">
-        <v>7687</v>
+        <v>7157</v>
       </c>
       <c r="T79" t="n">
-        <v>0.3741284124553204</v>
+        <v>0.221602899429854</v>
       </c>
       <c r="U79" t="n">
-        <v>1.984842009842396</v>
+        <v>0.02762862874078564</v>
       </c>
       <c r="V79" t="n">
-        <v>1.503826156258583</v>
+        <v>1.445326013490558</v>
       </c>
       <c r="W79" t="n">
-        <v>0.7726293317973614</v>
+        <v>0.05918683703930583</v>
       </c>
       <c r="X79" t="n">
-        <v>0.973876953125</v>
+        <v>0.8277587890625</v>
       </c>
       <c r="Y79" t="n">
-        <v>-0.01979184150695801</v>
+        <v>0.02281683683395386</v>
       </c>
       <c r="Z79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA79" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="80">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-08-20 23:56:49</t>
+          <t>2025-08-23 23:50:23</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -6808,58 +6808,58 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="I80" t="n">
-        <v>6701</v>
+        <v>6765</v>
       </c>
       <c r="J80" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K80" t="n">
-        <v>167.5</v>
+        <v>41</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="M80" t="n">
-        <v>167.5</v>
+        <v>40.99999999999999</v>
       </c>
       <c r="N80" t="n">
-        <v>144.54</v>
+        <v>70.21250000000001</v>
       </c>
       <c r="O80" t="n">
-        <v>207.4065</v>
+        <v>208.2525</v>
       </c>
       <c r="P80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.516</v>
+        <v>0.492</v>
       </c>
       <c r="R80" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S80" t="n">
-        <v>7687</v>
+        <v>7713</v>
       </c>
       <c r="T80" t="n">
-        <v>0.3741284124553204</v>
+        <v>367521291872.7336</v>
       </c>
       <c r="U80" t="n">
-        <v>1.984842009842396</v>
+        <v>0.0694714508135803</v>
       </c>
       <c r="V80" t="n">
-        <v>1.503826156258583</v>
+        <v>0.4034925869491417</v>
       </c>
       <c r="W80" t="n">
-        <v>0.7726293317973614</v>
+        <v>4.709188606124371</v>
       </c>
       <c r="X80" t="n">
-        <v>0.973876953125</v>
+        <v>0.809417724609375</v>
       </c>
       <c r="Y80" t="n">
-        <v>-0.01979184150695801</v>
+        <v>-0.8419492244720459</v>
       </c>
       <c r="Z80" t="n">
         <v>3</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-08-20 23:57:23</t>
+          <t>2025-08-23 23:51:03</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -6891,58 +6891,58 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>1134</v>
+        <v>1080</v>
       </c>
       <c r="I81" t="n">
-        <v>6749</v>
+        <v>6815</v>
       </c>
       <c r="J81" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K81" t="n">
-        <v>283.4</v>
+        <v>41</v>
       </c>
       <c r="L81" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="M81" t="n">
-        <v>283.4</v>
+        <v>40.99999999999999</v>
       </c>
       <c r="N81" t="n">
-        <v>119.6525</v>
+        <v>48</v>
       </c>
       <c r="O81" t="n">
-        <v>191.2375</v>
+        <v>168.8525</v>
       </c>
       <c r="P81" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.548</v>
+        <v>0.4920000000000001</v>
       </c>
       <c r="R81" t="n">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="S81" t="n">
-        <v>7687</v>
+        <v>7713</v>
       </c>
       <c r="T81" t="n">
-        <v>0.3741284124553204</v>
+        <v>367521291872.7336</v>
       </c>
       <c r="U81" t="n">
-        <v>1.984842009842396</v>
+        <v>0.0694714508135803</v>
       </c>
       <c r="V81" t="n">
-        <v>1.503826156258583</v>
+        <v>0.4034925869491417</v>
       </c>
       <c r="W81" t="n">
-        <v>0.7726293317973614</v>
+        <v>4.709188606124371</v>
       </c>
       <c r="X81" t="n">
-        <v>0.973876953125</v>
+        <v>0.809417724609375</v>
       </c>
       <c r="Y81" t="n">
-        <v>-0.01979184150695801</v>
+        <v>-0.8419492244720459</v>
       </c>
       <c r="Z81" t="n">
         <v>3</v>
